--- a/data/额度计算.xlsx
+++ b/data/额度计算.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:P7"/>
+  <dimension ref="E1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -386,7 +386,7 @@
     <col min="14" max="16" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:16">
+    <row r="1" spans="5:16">
       <c r="F1">
         <v>8</v>
       </c>
@@ -422,11 +422,11 @@
         <v>0.29651162790697677</v>
       </c>
       <c r="P1">
-        <f>F1*I1</f>
-        <v>136</v>
+        <f>F1*N1</f>
+        <v>1.5454545454545454</v>
       </c>
     </row>
-    <row r="2" spans="6:16">
+    <row r="2" spans="5:16">
       <c r="F2">
         <v>8</v>
       </c>
@@ -462,11 +462,11 @@
         <v>0.11337209302325581</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P4" si="2">F2*I2</f>
-        <v>104</v>
+        <f t="shared" ref="P2:P4" si="2">F2*N2</f>
+        <v>0.59090909090909094</v>
       </c>
     </row>
-    <row r="3" spans="6:16">
+    <row r="3" spans="5:16">
       <c r="F3">
         <v>5</v>
       </c>
@@ -503,10 +503,13 @@
       </c>
       <c r="P3">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>2.6136363636363633</v>
       </c>
     </row>
-    <row r="4" spans="6:16">
+    <row r="4" spans="5:16">
+      <c r="E4">
+        <v>100</v>
+      </c>
       <c r="F4">
         <v>20</v>
       </c>
@@ -543,10 +546,10 @@
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>740</v>
+        <v>4.204545454545455</v>
       </c>
     </row>
-    <row r="6" spans="6:16">
+    <row r="6" spans="5:16">
       <c r="L6">
         <f>SUM(L1:L4)</f>
         <v>440</v>
@@ -556,7 +559,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="7" spans="6:16">
+    <row r="7" spans="5:16">
       <c r="L7">
         <f>440*22</f>
         <v>9680</v>
@@ -566,8 +569,8 @@
         <v>18920</v>
       </c>
       <c r="P7">
-        <f>SUM(P1:P4)/SUM(I1:I4)</f>
-        <v>12.166666666666666</v>
+        <f>SUM(P1:P4)</f>
+        <v>8.954545454545455</v>
       </c>
     </row>
   </sheetData>

--- a/data/额度计算.xlsx
+++ b/data/额度计算.xlsx
@@ -375,18 +375,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:P7"/>
+  <dimension ref="E1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="14" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16">
+    <row r="1" spans="5:17">
       <c r="F1">
         <v>8</v>
       </c>
@@ -425,8 +425,12 @@
         <f>F1*N1</f>
         <v>1.5454545454545454</v>
       </c>
+      <c r="Q1">
+        <f>F1*O1</f>
+        <v>2.3720930232558142</v>
+      </c>
     </row>
-    <row r="2" spans="5:16">
+    <row r="2" spans="5:17">
       <c r="F2">
         <v>8</v>
       </c>
@@ -450,7 +454,7 @@
         <v>32.5</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M4" si="1">$I2*$K2</f>
+        <f>$I2*$K2</f>
         <v>97.5</v>
       </c>
       <c r="N2">
@@ -462,11 +466,15 @@
         <v>0.11337209302325581</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P4" si="2">F2*N2</f>
+        <f>F2*N2</f>
         <v>0.59090909090909094</v>
       </c>
+      <c r="Q2">
+        <f>F2*O2</f>
+        <v>0.90697674418604646</v>
+      </c>
     </row>
-    <row r="3" spans="5:16">
+    <row r="3" spans="5:17">
       <c r="F3">
         <v>5</v>
       </c>
@@ -490,7 +498,7 @@
         <v>230</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f>$I3*$K3</f>
         <v>230</v>
       </c>
       <c r="N3">
@@ -502,11 +510,15 @@
         <v>0.26744186046511625</v>
       </c>
       <c r="P3">
-        <f t="shared" si="2"/>
+        <f>F3*N3</f>
         <v>2.6136363636363633</v>
       </c>
+      <c r="Q3">
+        <f>F3*O3</f>
+        <v>1.3372093023255813</v>
+      </c>
     </row>
-    <row r="4" spans="5:16">
+    <row r="4" spans="5:17">
       <c r="E4">
         <v>100</v>
       </c>
@@ -533,7 +545,7 @@
         <v>92.5</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f>$I4*$K4</f>
         <v>277.5</v>
       </c>
       <c r="N4">
@@ -545,11 +557,15 @@
         <v>0.32267441860465118</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f>F4*N4</f>
         <v>4.204545454545455</v>
       </c>
+      <c r="Q4">
+        <f>F4*O4</f>
+        <v>6.4534883720930232</v>
+      </c>
     </row>
-    <row r="6" spans="5:16">
+    <row r="6" spans="5:17">
       <c r="L6">
         <f>SUM(L1:L4)</f>
         <v>440</v>
@@ -559,7 +575,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="7" spans="5:16">
+    <row r="7" spans="5:17">
       <c r="L7">
         <f>440*22</f>
         <v>9680</v>
@@ -571,6 +587,10 @@
       <c r="P7">
         <f>SUM(P1:P4)</f>
         <v>8.954545454545455</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(Q1:Q4)</f>
+        <v>11.069767441860465</v>
       </c>
     </row>
   </sheetData>
